--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +284,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +319,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -493,17 +495,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -517,7 +519,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" customHeight="1">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -543,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>43330</v>
       </c>
@@ -559,7 +561,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -573,7 +575,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43738</v>
       </c>
@@ -599,7 +601,7 @@
         <v>734.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="8" t="s">
         <v>1</v>
@@ -617,7 +619,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43819</v>
       </c>
@@ -643,7 +645,7 @@
         <v>734.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="8" t="s">
         <v>1</v>
@@ -661,53 +663,98 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>43970</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="4">
+        <f>PRODUCT(E8,D8)</f>
+        <v>4490</v>
       </c>
       <c r="G8" s="6">
-        <f>SUM(G2:G7)</f>
-        <v>1468.2</v>
+        <v>4490</v>
       </c>
       <c r="H8" s="6">
-        <f>SUM(H2:H7)</f>
-        <v>1468.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="E10" s="7"/>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <f>SUM(G2:G9)</f>
+        <v>5958.2</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(H2:H9)</f>
+        <v>5958.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -717,12 +764,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,12 +778,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -178,9 +178,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -499,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A6" sqref="A6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,215 +543,133 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>43330</v>
+      <c r="A2" s="13">
+        <v>43970</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="11"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="4"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>43738</v>
+      <c r="A4" s="13">
+        <v>43999</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
+        <f>SUM(C4,-C2)</f>
+        <v>51</v>
+      </c>
+      <c r="E4" s="14">
         <v>4.49</v>
       </c>
       <c r="F4" s="4">
-        <v>734.1</v>
+        <f>PRODUCT(D4,E4)</f>
+        <v>228.99</v>
       </c>
       <c r="G4" s="6">
-        <v>734.1</v>
+        <f>SUM(F4,F5)</f>
+        <v>304.32</v>
       </c>
       <c r="H4" s="6">
-        <v>734.1</v>
+        <v>304.32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
+        <f>SUM(C5,-C3)</f>
+        <v>31</v>
+      </c>
+      <c r="E5" s="14">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <f>PRODUCT(D5,E5)</f>
+        <v>75.33</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>43819</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="4">
-        <v>734.1</v>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="6">
-        <v>734.1</v>
+        <f>SUM(G2:G5)</f>
+        <v>304.32</v>
       </c>
       <c r="H6" s="6">
-        <v>734.1</v>
+        <f>SUM(H2:H5)</f>
+        <v>304.32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>43970</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="4">
-        <f>PRODUCT(E8,D8)</f>
-        <v>4490</v>
-      </c>
-      <c r="G8" s="6">
-        <v>4490</v>
-      </c>
-      <c r="H8" s="6">
-        <v>4490</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6">
-        <f>SUM(G2:G9)</f>
-        <v>5958.2</v>
-      </c>
-      <c r="H10" s="6">
-        <f>SUM(H2:H9)</f>
-        <v>5958.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,30 +624,53 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
+      <c r="A6" s="13">
+        <v>44029</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>115</v>
+      </c>
+      <c r="D6" s="9">
+        <f>SUM(C6,-C4)</f>
+        <v>64</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="4">
+        <f>PRODUCT(D6,E6)</f>
+        <v>301.44</v>
       </c>
       <c r="G6" s="6">
-        <f>SUM(G2:G5)</f>
-        <v>304.32</v>
+        <f>SUM(F6,F7)</f>
+        <v>354.99</v>
       </c>
       <c r="H6" s="6">
-        <f>SUM(H2:H5)</f>
-        <v>304.32</v>
+        <v>434.04</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9">
+        <f>SUM(C7,-C5)</f>
+        <v>21</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="4">
+        <f>PRODUCT(D7,E7)</f>
+        <v>53.55</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
@@ -656,20 +679,48 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(G2:G7)</f>
+        <v>659.31</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUM(H2:H7)</f>
+        <v>738.36</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -583,14 +583,14 @@
         <v>51</v>
       </c>
       <c r="D4" s="9">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>51</v>
       </c>
       <c r="E4" s="14">
         <v>4.49</v>
       </c>
       <c r="F4" s="4">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" ref="F4:F9" si="1">PRODUCT(D4,E4)</f>
         <v>228.99</v>
       </c>
       <c r="G4" s="6">
@@ -610,14 +610,14 @@
         <v>31</v>
       </c>
       <c r="D5" s="9">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="E5" s="14">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="4">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="1"/>
         <v>75.33</v>
       </c>
       <c r="G5" s="6"/>
@@ -634,14 +634,14 @@
         <v>115</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E6" s="14">
         <v>4.71</v>
       </c>
       <c r="F6" s="4">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="1"/>
         <v>301.44</v>
       </c>
       <c r="G6" s="6">
@@ -661,66 +661,168 @@
         <v>52</v>
       </c>
       <c r="D7" s="9">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E7" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="4">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="1"/>
         <v>53.55</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
+      <c r="A8" s="13">
+        <v>44061</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>187</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>339.12</v>
       </c>
       <c r="G8" s="6">
-        <f>SUM(G2:G7)</f>
-        <v>659.31</v>
+        <f>SUM(F8,F9)</f>
+        <v>397.77</v>
       </c>
       <c r="H8" s="6">
-        <f>SUM(H2:H7)</f>
-        <v>738.36</v>
+        <v>752.76</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>75</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>58.65</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="13">
+        <v>44067</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>187</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" ref="F10:F11" si="2">PRODUCT(D10,E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f>SUM(F10,F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>75</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <f>SUM(G2:G11)</f>
+        <v>1057.08</v>
+      </c>
+      <c r="H12" s="6">
+        <f>SUM(H2:H11)</f>
+        <v>1991.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -682,22 +682,21 @@
         <v>0</v>
       </c>
       <c r="C8" s="9">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E8" s="14">
         <v>4.71</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>339.12</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6">
         <f>SUM(F8,F9)</f>
-        <v>397.77</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6">
         <v>752.76</v>
@@ -709,18 +708,17 @@
         <v>1</v>
       </c>
       <c r="C9" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E9" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>58.65</v>
+        <v>0</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -733,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="9">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -760,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -777,30 +775,53 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="13">
+        <v>44091</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:F13" si="4">PRODUCT(D12,E12)</f>
+        <v>0</v>
       </c>
       <c r="G12" s="6">
-        <f>SUM(G2:G11)</f>
-        <v>1057.08</v>
+        <f>SUM(F12,F13)</f>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
-        <f>SUM(H2:H11)</f>
-        <v>1991.12</v>
+        <v>347.37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
@@ -809,20 +830,48 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <f>SUM(G2:G11)</f>
+        <v>659.31</v>
+      </c>
+      <c r="H14" s="6">
+        <f>SUM(H2:H11)</f>
+        <v>1991.12</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -826,30 +826,53 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
+      <c r="A14" s="13">
+        <v>44133</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" ref="D14:D15" si="5">SUM(C14,-C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F15" si="6">PRODUCT(D14,E14)</f>
+        <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f>SUM(G2:G11)</f>
-        <v>659.31</v>
+        <f>SUM(F14,F15)</f>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
-        <f>SUM(H2:H11)</f>
-        <v>1991.12</v>
+        <v>366.31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
@@ -858,20 +881,48 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(G2:G11)</f>
+        <v>659.31</v>
+      </c>
+      <c r="H16" s="6">
+        <f>SUM(H2:H15)</f>
+        <v>2704.7999999999997</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,30 +877,51 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
+      <c r="A16" s="13">
+        <v>44160</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>460</v>
+      </c>
+      <c r="D16" s="9">
+        <v>96</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:F17" si="7">PRODUCT(D16,E16)</f>
+        <v>452.15999999999997</v>
       </c>
       <c r="G16" s="6">
-        <f>SUM(G2:G11)</f>
-        <v>659.31</v>
+        <f>SUM(F16,F17)</f>
+        <v>592.41</v>
       </c>
       <c r="H16" s="6">
-        <f>SUM(H2:H15)</f>
-        <v>2704.7999999999997</v>
+        <v>568.19000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>151</v>
+      </c>
+      <c r="D17" s="9">
+        <v>55</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="7"/>
+        <v>140.25</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
@@ -909,20 +930,48 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <f>SUM(G2:G11)</f>
+        <v>659.31</v>
+      </c>
+      <c r="H18" s="6">
+        <f>SUM(H2:H17)</f>
+        <v>3272.99</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -926,30 +926,51 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
+      <c r="A18" s="13">
+        <v>44188</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ref="F18:F19" si="8">PRODUCT(D18,E18)</f>
+        <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f>SUM(G2:G11)</f>
-        <v>659.31</v>
+        <f>SUM(F18,F19)</f>
+        <v>0</v>
       </c>
       <c r="H18" s="6">
-        <f>SUM(H2:H17)</f>
-        <v>3272.99</v>
+        <v>595.1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
@@ -958,20 +979,48 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
+        <f>SUM(G2:G19)</f>
+        <v>1251.7199999999998</v>
+      </c>
+      <c r="H20" s="6">
+        <f>SUM(H2:H19)</f>
+        <v>3868.0899999999997</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -933,21 +933,21 @@
         <v>0</v>
       </c>
       <c r="C18" s="9">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="D18" s="9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E18" s="14">
         <v>4.71</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ref="F18:F19" si="8">PRODUCT(D18,E18)</f>
-        <v>0</v>
+        <v>518.1</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(F18,F19)</f>
-        <v>0</v>
+        <v>551.25</v>
       </c>
       <c r="H18" s="6">
         <v>595.1</v>
@@ -959,46 +959,67 @@
         <v>1</v>
       </c>
       <c r="C19" s="9">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D19" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E19" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>33.15</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
+      <c r="A20" s="13">
+        <v>44228</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>700</v>
+      </c>
+      <c r="D20" s="9">
+        <v>130</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ref="F20:F21" si="9">PRODUCT(D20,E20)</f>
+        <v>612.29999999999995</v>
       </c>
       <c r="G20" s="6">
-        <f>SUM(G2:G19)</f>
-        <v>1251.7199999999998</v>
+        <f>SUM(F20,F21)</f>
+        <v>739.8</v>
       </c>
       <c r="H20" s="6">
-        <f>SUM(H2:H19)</f>
-        <v>3868.0899999999997</v>
+        <v>705.2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>241</v>
+      </c>
+      <c r="D21" s="9">
+        <v>50</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="9"/>
+        <v>127.49999999999999</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
@@ -1007,20 +1028,48 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6">
+        <f>SUM(G2:G19)</f>
+        <v>1802.9699999999998</v>
+      </c>
+      <c r="H22" s="6">
+        <f>SUM(H2:H19)</f>
+        <v>3868.0899999999997</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1024,30 +1024,51 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
+      <c r="A22" s="13">
+        <v>44370</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>700</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22:F23" si="10">PRODUCT(D22,E22)</f>
+        <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f>SUM(G2:G19)</f>
-        <v>1802.9699999999998</v>
+        <f>SUM(F22,F23)</f>
+        <v>0</v>
       </c>
       <c r="H22" s="6">
-        <f>SUM(H2:H19)</f>
-        <v>3868.0899999999997</v>
+        <v>812.4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>241</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
@@ -1056,20 +1077,48 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="6">
+        <f>SUM(G2:G21)</f>
+        <v>2542.7699999999995</v>
+      </c>
+      <c r="H24" s="6">
+        <f>SUM(H2:H21)</f>
+        <v>4573.29</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="2"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1073,30 +1073,51 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
+      <c r="A24" s="13">
+        <v>44397</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>700</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ref="F24:F25" si="11">PRODUCT(D24,E24)</f>
+        <v>0</v>
       </c>
       <c r="G24" s="6">
-        <f>SUM(G2:G21)</f>
-        <v>2542.7699999999995</v>
+        <f>SUM(F24,F25)</f>
+        <v>0</v>
       </c>
       <c r="H24" s="6">
-        <f>SUM(H2:H21)</f>
-        <v>4573.29</v>
+        <v>411.53</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>241</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
@@ -1105,20 +1126,48 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6">
+        <f>SUM(G2:G21)</f>
+        <v>2542.7699999999995</v>
+      </c>
+      <c r="H26" s="6">
+        <f>SUM(H2:H21)</f>
+        <v>4573.29</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="2"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -498,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1031,21 +1031,22 @@
         <v>0</v>
       </c>
       <c r="C22" s="9">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="D22" s="9">
-        <v>0</v>
+        <f t="shared" ref="D22:D25" si="10">SUM(C22,-C20)</f>
+        <v>140</v>
       </c>
       <c r="E22" s="14">
         <v>4.71</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ref="F22:F23" si="10">PRODUCT(D22,E22)</f>
-        <v>0</v>
+        <f t="shared" ref="F22:F23" si="11">PRODUCT(D22,E22)</f>
+        <v>659.4</v>
       </c>
       <c r="G22" s="6">
         <f>SUM(F22,F23)</f>
-        <v>0</v>
+        <v>812.4</v>
       </c>
       <c r="H22" s="6">
         <v>812.4</v>
@@ -1057,17 +1058,18 @@
         <v>1</v>
       </c>
       <c r="C23" s="9">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="D23" s="9">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>60</v>
       </c>
       <c r="E23" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>153</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1080,21 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C24" s="9">
-        <v>700</v>
+        <v>912</v>
       </c>
       <c r="D24" s="9">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>72</v>
       </c>
       <c r="E24" s="14">
         <v>4.96</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" ref="F24:F25" si="11">PRODUCT(D24,E24)</f>
-        <v>0</v>
+        <f t="shared" ref="F24:F25" si="12">PRODUCT(D24,E24)</f>
+        <v>357.12</v>
       </c>
       <c r="G24" s="6">
         <f>SUM(F24,F25)</f>
-        <v>0</v>
+        <v>410.72</v>
       </c>
       <c r="H24" s="6">
         <v>411.53</v>
@@ -1106,17 +1109,18 @@
         <v>1</v>
       </c>
       <c r="C25" s="9">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D25" s="9">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="E25" s="14">
         <v>2.68</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>53.6</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1131,12 +1135,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="6">
-        <f>SUM(G2:G21)</f>
-        <v>2542.7699999999995</v>
+        <f>SUM(G2:G25)</f>
+        <v>3765.8899999999994</v>
       </c>
       <c r="H26" s="6">
-        <f>SUM(H2:H21)</f>
-        <v>4573.29</v>
+        <f>SUM(H2:H25)</f>
+        <v>5797.2199999999993</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1172,7 +1176,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/250ee.xlsx
+++ b/sputnik/personal/ee/250ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1126,30 +1126,53 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
+      <c r="A26" s="13">
+        <v>44524</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1056</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" ref="D26:D27" si="13">SUM(C26,-C24)</f>
+        <v>144</v>
+      </c>
+      <c r="E26" s="14">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ref="F26:F27" si="14">PRODUCT(D26,E26)</f>
+        <v>714.24</v>
       </c>
       <c r="G26" s="6">
-        <f>SUM(G2:G25)</f>
-        <v>3765.8899999999994</v>
+        <f>SUM(F26,F27)</f>
+        <v>818.76</v>
       </c>
       <c r="H26" s="6">
-        <f>SUM(H2:H25)</f>
-        <v>5797.2199999999993</v>
+        <v>777.69</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
+        <v>360</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="14"/>
+        <v>104.52000000000001</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
@@ -1158,20 +1181,48 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="6">
+        <f>SUM(G2:G27)</f>
+        <v>4584.6499999999996</v>
+      </c>
+      <c r="H28" s="6">
+        <f>SUM(H2:H27)</f>
+        <v>6574.91</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="2"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
